--- a/Data/全部数据/原始excel/k=2.0/k=2.0所有概率值.xlsx
+++ b/Data/全部数据/原始excel/k=2.0/k=2.0所有概率值.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\脑电波\lz\全部数据\原始excel\k=2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -122,19 +122,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -229,9 +229,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -264,9 +264,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -452,9 +452,9 @@
       <selection sqref="A1:AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.96306818181818177</v>
       </c>
@@ -644,7 +644,7 @@
         <v>0.95582329317269077</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.96214511041009465</v>
       </c>

--- a/Data/全部数据/原始excel/k=2.0/k=2.0所有概率值.xlsx
+++ b/Data/全部数据/原始excel/k=2.0/k=2.0所有概率值.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\脑电波\lz\全部数据\原始excel\k=2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\脑电波\lz\全部数据\原始excel\test理想数据k=1-2\k=2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12936" windowHeight="6348"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>LZ-调节2Hz_20160601_153948_ASIC_EEG</t>
   </si>
@@ -117,6 +117,30 @@
   </si>
   <si>
     <t>赵师弟-调节2hz_20160728_105157_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>cxq-调节2hz_20161026_101134_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>cxq-调节2hz_20161102_104323_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>hzj-调节2hz_20161019_101643_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>hzj-调节2hz_20161025_162241_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>lz-调节2hz_20161027_104924_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>lz-调节2hz_20161031_163934_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>wnb-调节2Hz_20161020_154559_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>wnb-调节2hz_20161101_102759_ASIC_EEG</t>
   </si>
 </sst>
 </file>
@@ -446,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AE3"/>
+      <selection sqref="A1:AM3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,8 +572,32 @@
       <c r="AE1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.96306818181818177</v>
       </c>
@@ -643,8 +691,32 @@
       <c r="AE2">
         <v>0.95582329317269077</v>
       </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>0.99</v>
+      </c>
+      <c r="AJ2">
+        <v>0.99687499999999996</v>
+      </c>
+      <c r="AK2">
+        <v>0.9853249475890985</v>
+      </c>
+      <c r="AL2">
+        <v>0.97681159420289854</v>
+      </c>
+      <c r="AM2">
+        <v>0.99404761904761907</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.96214511041009465</v>
       </c>
@@ -737,6 +809,30 @@
       </c>
       <c r="AE3">
         <v>0.99350649350649356</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>0.99227799227799229</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>0.93586005830903796</v>
+      </c>
+      <c r="AJ3">
+        <v>0.98630136986301364</v>
+      </c>
+      <c r="AK3">
+        <v>0.98101265822784811</v>
+      </c>
+      <c r="AL3">
+        <v>0.95013850415512469</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
